--- a/TGSB Case Study 1/Timesheet_02_2024.xlsx
+++ b/TGSB Case Study 1/Timesheet_02_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/998c3e7283d5563b/Desktop/TGSB Case Study 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/998c3e7283d5563b/00-Programing/AdvancedExcel/TGSB Case Study 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{E504D76B-A2A1-42BC-B3A3-14E45D12A0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45F74589-3B4D-4F0E-A81D-01A261F04647}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{E504D76B-A2A1-42BC-B3A3-14E45D12A0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1056D17F-1896-4C86-A842-E3EF1AF2C12E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="72">
-  <si>
-    <t>SC TotalEnergies Global Services Bucharest SRL</t>
-  </si>
-  <si>
-    <t>RO37214798 J40/3436/2017</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="71">
   <si>
     <t>DEPARTMENT: All teams</t>
   </si>
@@ -255,6 +249,9 @@
   </si>
   <si>
     <t>J0000022</t>
+  </si>
+  <si>
+    <t>Company name</t>
   </si>
 </sst>
 </file>
@@ -757,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -781,23 +778,21 @@
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -805,7 +800,7 @@
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -825,7 +820,7 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="H9" s="16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -839,7 +834,7 @@
     <row r="10" spans="2:36" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="H11" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -890,22 +885,22 @@
     </row>
     <row r="14" spans="2:36" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H14" s="8">
         <v>1</v>
@@ -1000,22 +995,22 @@
         <v>2</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2">
         <v>8</v>
@@ -1023,7 +1018,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M15" s="2">
         <v>8</v>
@@ -1035,41 +1030,41 @@
         <v>8</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T15" s="2">
         <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -1077,13 +1072,13 @@
         <v>8</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,22 +1086,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2">
         <v>8</v>
@@ -1117,13 +1112,13 @@
         <v>8</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P16" s="2">
         <v>8</v>
@@ -1134,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W16" s="2">
         <v>8</v>
@@ -1151,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD16" s="2">
         <v>8</v>
@@ -1171,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,33 +1177,33 @@
         <v>13</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H17" s="2">
         <v>8</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N17" s="2">
         <v>8</v>
@@ -1217,15 +1212,15 @@
         <v>8</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U17" s="2">
         <v>8</v>
@@ -1234,12 +1229,12 @@
         <v>8</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA17" s="2">
         <v>8</v>
@@ -1248,21 +1243,21 @@
         <v>8</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ17" s="2">
         <v>8</v>
@@ -1273,47 +1268,47 @@
         <v>22</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N18" s="2">
         <v>8</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T18" s="2">
         <v>8</v>
@@ -1322,21 +1317,21 @@
         <v>8</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC18" s="2">
         <v>8</v>
@@ -1347,7 +1342,7 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH18" s="2">
         <v>8</v>
@@ -1356,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="AJ18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,87 +1359,87 @@
         <v>18</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O19" s="2">
         <v>8</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V19" s="2">
         <v>8</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC19" s="2">
         <v>8</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ19" s="2">
         <v>8</v>
@@ -1455,30 +1450,30 @@
         <v>5</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="H20" s="2">
         <v>8</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M20" s="2">
         <v>8</v>
@@ -1487,52 +1482,52 @@
         <v>8</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI20" s="2">
         <v>8</v>
@@ -1546,47 +1541,47 @@
         <v>6</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T21" s="2">
         <v>8</v>
@@ -1595,18 +1590,18 @@
         <v>8</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB21" s="2">
         <v>8</v>
@@ -1615,7 +1610,7 @@
         <v>8</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
@@ -1626,10 +1621,10 @@
         <v>8</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,25 +1632,25 @@
         <v>20</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H22" s="2">
         <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1666,21 +1661,21 @@
         <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U22" s="2">
         <v>8</v>
@@ -1689,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -1697,16 +1692,16 @@
         <v>8</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB22" s="2">
         <v>8</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
@@ -1714,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" s="2">
         <v>8</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1728,33 +1723,33 @@
         <v>17</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="H23" s="2">
         <v>8</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N23" s="2">
         <v>8</v>
@@ -1763,12 +1758,12 @@
         <v>8</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T23" s="2">
         <v>8</v>
@@ -1777,32 +1772,32 @@
         <v>8</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH23" s="2">
         <v>8</v>
@@ -1819,25 +1814,25 @@
         <v>10</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="H24" s="2">
         <v>8</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1859,7 +1854,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T24" s="2">
         <v>8</v>
@@ -1888,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
@@ -1910,33 +1905,33 @@
         <v>15</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N25" s="2">
         <v>8</v>
@@ -1945,35 +1940,35 @@
         <v>8</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC25" s="2">
         <v>8</v>
@@ -1984,13 +1979,13 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ25" s="2">
         <v>8</v>
@@ -2001,30 +1996,30 @@
         <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H26" s="2">
         <v>8</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M26" s="2">
         <v>8</v>
@@ -2033,27 +2028,27 @@
         <v>8</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T26" s="2">
         <v>8</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V26" s="2">
         <v>8</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -2061,27 +2056,27 @@
         <v>8</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH26" s="2">
         <v>8</v>
       </c>
       <c r="AI26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ26" s="2">
         <v>8</v>
@@ -2092,25 +2087,25 @@
         <v>9</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H27" s="2">
         <v>8</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2121,58 +2116,58 @@
         <v>8</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T27" s="2">
         <v>8</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V27" s="2">
         <v>8</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA27" s="2">
         <v>8</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC27" s="2">
         <v>8</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ27" s="2">
         <v>8</v>
@@ -2183,25 +2178,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2212,47 +2207,47 @@
         <v>8</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -2263,10 +2258,10 @@
         <v>8</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,39 +2269,39 @@
         <v>16</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N29" s="2">
         <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P29" s="2">
         <v>8</v>
@@ -2314,30 +2309,30 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V29" s="2">
         <v>8</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC29" s="2">
         <v>8</v>
@@ -2348,16 +2343,16 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2365,25 +2360,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2394,13 +2389,13 @@
         <v>8</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -2411,13 +2406,13 @@
         <v>8</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -2428,27 +2423,27 @@
         <v>8</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2456,36 +2451,36 @@
         <v>12</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O31" s="2">
         <v>8</v>
@@ -2547,25 +2542,25 @@
         <v>11</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2576,13 +2571,13 @@
         <v>8</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O32" s="2">
         <v>8</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -2593,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V32" s="2">
         <v>8</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
@@ -2607,16 +2602,16 @@
         <v>8</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB32" s="2">
         <v>8</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
@@ -2624,10 +2619,10 @@
         <v>8</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ32" s="2">
         <v>8</v>
@@ -2638,90 +2633,90 @@
         <v>1</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2729,25 +2724,25 @@
         <v>7</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -2755,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N34" s="2">
         <v>8</v>
@@ -2764,24 +2759,24 @@
         <v>8</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T34" s="2">
         <v>8</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V34" s="2">
         <v>8</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
@@ -2789,21 +2784,21 @@
         <v>8</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB34" s="2">
         <v>8</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH34" s="2">
         <v>8</v>
@@ -2820,19 +2815,19 @@
         <v>14</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="H35" s="2">
         <v>8</v>
@@ -2849,27 +2844,27 @@
         <v>8</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T35" s="2">
         <v>8</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W35" s="2">
         <v>8</v>
@@ -2877,13 +2872,13 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC35" s="2">
         <v>8</v>
@@ -2894,7 +2889,7 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH35" s="2">
         <v>8</v>
@@ -2903,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="AJ35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2911,25 +2906,25 @@
         <v>19</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2937,13 +2932,13 @@
         <v>8</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N36" s="2">
         <v>8</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P36" s="2">
         <v>8</v>
@@ -2951,7 +2946,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T36" s="2">
         <v>8</v>
@@ -2963,7 +2958,7 @@
         <v>8</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
@@ -2974,21 +2969,21 @@
         <v>8</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI36" s="2">
         <v>8</v>
@@ -3020,6 +3015,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080ACE09E7D8F4A4D99A534D3EB20B34C" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="18b97ffed73d5344a6e767d655bb596d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c720f9d8-444b-4fbe-babb-a5ce851220a8" xmlns:ns3="b8cacd15-12fa-49cc-bc89-63acc881fe72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3e13d56453452055be885cd81c70138" ns2:_="" ns3:_="">
     <xsd:import namespace="c720f9d8-444b-4fbe-babb-a5ce851220a8"/>
@@ -3196,22 +3206,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6F6BD3D-3160-4192-95E0-79475F4A3E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283F03AC-60B5-4464-8110-EF6E65D99AA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E710D4E-6C5E-41A8-9825-9231DC309041}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3228,21 +3240,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283F03AC-60B5-4464-8110-EF6E65D99AA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6F6BD3D-3160-4192-95E0-79475F4A3E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>